--- a/data/trans_camb/P14B24_2016_2023-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P14B24_2016_2023-Provincia-trans_camb.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-0.01641872278942422</v>
+        <v>-0.01641872278942413</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>-5.514466426163647</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.064468860817027</v>
+        <v>-1.052615937572815</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.584894825391801</v>
+        <v>-9.061541084039829</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.818765556899917</v>
+        <v>-4.79160226968787</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6623379536714639</v>
+        <v>0.9232077961696108</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.434013560124586</v>
+        <v>-2.569271509206503</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.213133455758306</v>
+        <v>-1.180625251700735</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.04801856085486605</v>
+        <v>-0.04801856085486579</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>-0.794088396223536</v>
@@ -633,10 +633,10 @@
       </c>
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="n">
-        <v>-0.9092725923991609</v>
+        <v>-0.908913177098657</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8970970531414165</v>
+        <v>-0.8980139912374607</v>
       </c>
     </row>
     <row r="9">
@@ -648,10 +648,10 @@
       </c>
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="n">
-        <v>-0.5148794974199905</v>
+        <v>-0.5161455942716201</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.4150857199979615</v>
+        <v>-0.4662923750885559</v>
       </c>
     </row>
     <row r="10">
@@ -669,7 +669,7 @@
         <v>0.8901521694653681</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.553683505839861</v>
+        <v>2.553683505839858</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>1.722510196526163</v>
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.004850663669428</v>
+        <v>-1.028620364414047</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5429603945954988</v>
+        <v>-0.146128486752319</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04979672555670284</v>
+        <v>0.02671331709186512</v>
       </c>
     </row>
     <row r="12">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.006578991918587</v>
+        <v>2.824336644002343</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.263340353229854</v>
+        <v>5.663946325323272</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.365926880713895</v>
+        <v>3.469404049854092</v>
       </c>
     </row>
     <row r="13">
@@ -720,7 +720,7 @@
         <v>0.4732112881988072</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.4356255103667436</v>
+        <v>0.4356255103667431</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.4403821077922501</v>
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4373017746393794</v>
+        <v>-0.4407613415690969</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07411039907403404</v>
+        <v>-0.04250901835824576</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.005366933993203233</v>
+        <v>-0.0253738402594665</v>
       </c>
     </row>
     <row r="15">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.666923874110954</v>
+        <v>2.601220017803921</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.286475236718664</v>
+        <v>1.319566594037903</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.092015688985872</v>
+        <v>1.198090750745131</v>
       </c>
     </row>
     <row r="16">
@@ -775,7 +775,7 @@
         <v>4.088880418942255</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.657535343387631</v>
+        <v>2.65753534338763</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>3.352313233193645</v>
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.632423381208666</v>
+        <v>1.80221219391172</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01878489986436881</v>
+        <v>-0.3631108551400462</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.890134197134444</v>
+        <v>1.714804980195463</v>
       </c>
     </row>
     <row r="18">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.85017726016172</v>
+        <v>6.849825143425122</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.776265154370002</v>
+        <v>4.777272376369438</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.213638544057723</v>
+        <v>5.193379517109993</v>
       </c>
     </row>
     <row r="19">
@@ -829,7 +829,7 @@
         <v>1.180878960760235</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.097098526964921</v>
+        <v>2.09709852696492</v>
       </c>
     </row>
     <row r="20">
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.4472586200774352</v>
+        <v>0.4965247477538393</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.03480620358219295</v>
+        <v>-0.1137234030628449</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6802993623519732</v>
+        <v>0.5638564588726641</v>
       </c>
     </row>
     <row r="21">
@@ -856,14 +856,12 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>20.69155884132869</v>
-      </c>
+      <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>4.281982731007949</v>
+        <v>4.050342551017621</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.600430073536443</v>
+        <v>5.641888832333964</v>
       </c>
     </row>
     <row r="22">
@@ -881,10 +879,10 @@
         <v>2.173602880668299</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>3.863143380899667</v>
+        <v>3.863143380899668</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.100999311816411</v>
+        <v>3.100999311816409</v>
       </c>
     </row>
     <row r="23">
@@ -895,13 +893,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2409793136876274</v>
+        <v>0.1897984126343255</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.358110817890479</v>
+        <v>1.17117272523996</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.480415048305744</v>
+        <v>1.272452233796027</v>
       </c>
     </row>
     <row r="24">
@@ -912,13 +910,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.862976254985794</v>
+        <v>5.158556591806708</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.626140201418115</v>
+        <v>6.435478079736076</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.087434096824814</v>
+        <v>4.888353855092883</v>
       </c>
     </row>
     <row r="25">
@@ -932,10 +930,10 @@
         <v>2.052672976873918</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>1.426545019595715</v>
+        <v>1.426545019595716</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.629239653524872</v>
+        <v>1.629239653524871</v>
       </c>
     </row>
     <row r="26">
@@ -946,13 +944,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1011525468284322</v>
+        <v>-0.09736594935434822</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2972309643548727</v>
+        <v>0.2000037403810083</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4448176132787734</v>
+        <v>0.4135645552149494</v>
       </c>
     </row>
     <row r="27">
@@ -963,13 +961,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12.99093964812313</v>
+        <v>12.94240525500398</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4.618084453330008</v>
+        <v>4.496170444778519</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.12083340071955</v>
+        <v>3.809005959376571</v>
       </c>
     </row>
     <row r="28">
@@ -1001,13 +999,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.164284812892717</v>
+        <v>-4.716400308625992</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.081131358816613</v>
+        <v>-6.135013231913781</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.602423404778281</v>
+        <v>-4.256006509070578</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1016,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08493556015849039</v>
+        <v>-0.07749202405278381</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.052272830337353</v>
+        <v>0.7026844374628114</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.346525650571435</v>
+        <v>-0.2722896697388327</v>
       </c>
     </row>
     <row r="31">
@@ -1053,10 +1051,10 @@
       </c>
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="n">
-        <v>-0.7045402858512934</v>
+        <v>-0.7143860785445429</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7568000014952708</v>
+        <v>-0.7390601911203454</v>
       </c>
     </row>
     <row r="33">
@@ -1068,10 +1066,10 @@
       </c>
       <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="n">
-        <v>0.3892649088090411</v>
+        <v>0.2869817600763859</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.08249519637561764</v>
+        <v>-0.08101213624149609</v>
       </c>
     </row>
     <row r="34">
@@ -1086,10 +1084,10 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>4.80189766676496</v>
+        <v>4.801897666764962</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>2.953754112552578</v>
+        <v>2.953754112552577</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>3.841447691787181</v>
@@ -1103,13 +1101,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.835597379517826</v>
+        <v>2.787719755108339</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.3392494179525927</v>
+        <v>-0.3075813239165201</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.99049717362451</v>
+        <v>2.052184043642203</v>
       </c>
     </row>
     <row r="36">
@@ -1120,13 +1118,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.596367592674986</v>
+        <v>7.81541510373834</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.913015361925778</v>
+        <v>6.21779990045091</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.665513632213102</v>
+        <v>5.787033847148155</v>
       </c>
     </row>
     <row r="37">
@@ -1137,10 +1135,10 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>13.15328623774646</v>
+        <v>13.15328623774647</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.8742949137193423</v>
+        <v>0.8742949137193419</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>2.021993818694271</v>
@@ -1155,10 +1153,10 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>-0.1666832456290708</v>
+        <v>-0.1361442469791039</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.6284090870608089</v>
+        <v>0.6644111381351523</v>
       </c>
     </row>
     <row r="39">
@@ -1170,10 +1168,10 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>2.913966528391486</v>
+        <v>3.535192251626951</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>5.16752648507504</v>
+        <v>5.923604649503266</v>
       </c>
     </row>
     <row r="40">
@@ -1194,7 +1192,7 @@
         <v>6.230623684491029</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4.996083146545381</v>
+        <v>4.996083146545383</v>
       </c>
     </row>
     <row r="41">
@@ -1205,13 +1203,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.052460881484365</v>
+        <v>1.896280996624346</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>3.939418201835004</v>
+        <v>3.646986596724235</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.628716159140138</v>
+        <v>3.390978377337749</v>
       </c>
     </row>
     <row r="42">
@@ -1222,13 +1220,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.806671500980302</v>
+        <v>5.788757767827236</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>8.875036261800044</v>
+        <v>8.646073516198159</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.688815236908821</v>
+        <v>6.609971713703675</v>
       </c>
     </row>
     <row r="43">
@@ -1245,7 +1243,7 @@
         <v>1.85545858116012</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>2.463533803573459</v>
+        <v>2.46353380357346</v>
       </c>
     </row>
     <row r="44">
@@ -1256,13 +1254,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>1.268570954957966</v>
+        <v>1.165160401726689</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.7668394175440445</v>
+        <v>0.6938383900960816</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.244544350426292</v>
+        <v>1.255414662924065</v>
       </c>
     </row>
     <row r="45">
@@ -1273,13 +1271,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>23.71994638564292</v>
+        <v>26.56308739357868</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>3.831993278305041</v>
+        <v>3.682993530367724</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>4.448936327935933</v>
+        <v>4.73120419195183</v>
       </c>
     </row>
     <row r="46">
@@ -1297,10 +1295,10 @@
         <v>-0.3040342633427204</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0.3575552432914228</v>
+        <v>0.3575552432914235</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.01967432759044582</v>
+        <v>0.01967432759044548</v>
       </c>
     </row>
     <row r="47">
@@ -1311,13 +1309,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.358244429006917</v>
+        <v>-1.393047322243326</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.58836661175769</v>
+        <v>-1.596262031204956</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.005307343990925</v>
+        <v>-1.257395902955923</v>
       </c>
     </row>
     <row r="48">
@@ -1328,13 +1326,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.7248746992436922</v>
+        <v>0.7333427129202568</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.251475210642733</v>
+        <v>2.298673601319989</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.090747668457779</v>
+        <v>1.000100377372984</v>
       </c>
     </row>
     <row r="49">
@@ -1348,10 +1346,10 @@
         <v>-0.2392544826026779</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.09049633539977066</v>
+        <v>0.09049633539977084</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.007422482871721798</v>
+        <v>0.007422482871721667</v>
       </c>
     </row>
     <row r="50">
@@ -1362,13 +1360,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.7144113752833073</v>
+        <v>-0.7345210383084695</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3160438608659494</v>
+        <v>-0.3145135495973196</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3239546046553329</v>
+        <v>-0.3819625783164544</v>
       </c>
     </row>
     <row r="51">
@@ -1379,13 +1377,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.076752428337828</v>
+        <v>1.268160902240359</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.7420878980252025</v>
+        <v>0.8170176386031566</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.5504983133706938</v>
+        <v>0.4920055456600435</v>
       </c>
     </row>
     <row r="52">
@@ -1403,7 +1401,7 @@
         <v>1.656612043397445</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>2.020932782145964</v>
+        <v>2.020932782145966</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>1.853121729338093</v>
@@ -1417,13 +1415,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.9997744736090648</v>
+        <v>1.062828893737267</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>1.045368145225067</v>
+        <v>1.04585926254388</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.252538083142873</v>
+        <v>1.246953730980338</v>
       </c>
     </row>
     <row r="54">
@@ -1434,13 +1432,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.393654663125498</v>
+        <v>2.441641161343873</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.969458546107831</v>
+        <v>2.956215918022722</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2.437722428165521</v>
+        <v>2.397294070312076</v>
       </c>
     </row>
     <row r="55">
@@ -1454,7 +1452,7 @@
         <v>1.514476788658963</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>0.4882712010400481</v>
+        <v>0.4882712010400485</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>0.6994071089582349</v>
@@ -1468,13 +1466,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.7047004713261332</v>
+        <v>0.7700050377806782</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.2374051342264243</v>
+        <v>0.2005138501873275</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.4159493725174828</v>
+        <v>0.4014702348707492</v>
       </c>
     </row>
     <row r="57">
@@ -1485,13 +1483,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>2.705500004549214</v>
+        <v>2.725426830600561</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.8593647098175292</v>
+        <v>0.803388056458995</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.014893132337539</v>
+        <v>0.9895492975536075</v>
       </c>
     </row>
     <row r="58">
